--- a/Budget/owasp-summit-2017-budget small v20170126.xlsx
+++ b/Budget/owasp-summit-2017-budget small v20170126.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Estimated profit</t>
   </si>
@@ -158,16 +158,7 @@
     <t>Total Venue</t>
   </si>
   <si>
-    <t>Reservation</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>WiFi included</t>
-  </si>
-  <si>
-    <t>people paying their own ticket</t>
   </si>
   <si>
     <t>refund seed fund</t>
@@ -913,7 +904,7 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -943,13 +934,13 @@
     <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="66" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
@@ -972,6 +963,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="23">
+        <f>Assumptions!B7+Assumptions!B8</f>
         <v>60</v>
       </c>
       <c r="D4" s="24"/>
@@ -991,7 +983,7 @@
       <c r="C5" s="23"/>
       <c r="D5" s="24"/>
       <c r="E5" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="26">
         <f>C11</f>
@@ -1079,7 +1071,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F11" s="70">
         <f>Assumptions!B24</f>
@@ -1897,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1911,13 +1903,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.2">
@@ -1931,7 +1923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1960,7 +1952,7 @@
     </row>
     <row r="7" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="71" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="71">
         <v>40</v>
@@ -1969,7 +1961,7 @@
     </row>
     <row r="8" spans="1:3" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="73" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="73">
         <v>20</v>
@@ -2090,12 +2082,12 @@
         <v>0</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>1.27</v>
@@ -2103,7 +2095,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>19330</v>
@@ -2111,7 +2103,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <f>B23*B22</f>
@@ -2120,7 +2112,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -2128,7 +2120,7 @@
     </row>
     <row r="26" spans="1:4" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B26" s="73">
         <f>B25*B7*B10</f>
@@ -2149,34 +2141,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="72">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31">
-        <f>B29*B30</f>
-        <v>13364.73</v>
-      </c>
-      <c r="D31">
-        <f>B31/B4</f>
-        <v>7.4248500000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="e">
-        <f>#REF!*#REF!*B4+#REF!*#REF!*B5</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B30" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
